--- a/data/trans_dic/P16A09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -681,37 +681,37 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 5,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,15; 1,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,12 +879,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,32 +894,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,06; 1,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,07; 0,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,08; 0,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,0; 0,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,14; 1,12</t>
         </is>
       </c>
     </row>
@@ -941,57 +941,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1009,57 +1009,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,44; 2,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,43; 2,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,15; 1,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,68; 2,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,22; 1,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,28; 1,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,21; 0,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,48; 1,47</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,93; 3,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,34; 2,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,17; 1,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,99; 3,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,42; 4,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,6; 4,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,68; 4,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,25; 7,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,45; 3,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,15; 2,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,03; 2,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,89; 4,83</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>5,18; 10,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,36; 4,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>1,03; 4,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,49; 4,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>6,33; 12,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>6,51; 12,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,56; 8,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,67; 8,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>6,38; 10,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>4,49; 7,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,78; 5,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,77; 5,88</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,26%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>8,7; 14,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>6,37; 11,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,44; 6,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,49; 6,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>13,75; 19,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>16,21; 22,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>8,6; 13,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>8,87; 14,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>12,18; 16,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>12,67; 16,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,77; 9,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>7,37; 10,61</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,4; 3,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,65; 2,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,97; 1,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,56; 2,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,35; 5,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,04; 6,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,11; 4,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,77; 6,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,54; 4,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,55; 4,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,23; 2,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,46; 4,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,6</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,91</t>
+          <t>0,04; 1,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,12</t>
+          <t>0,12; 1,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,31</t>
+          <t>0,68; 2,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,47</t>
+          <t>0,48; 1,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,26</t>
+          <t>0,5; 2,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,25</t>
+          <t>2,05; 6,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,83</t>
+          <t>1,37; 3,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,62%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,34</t>
+          <t>1,43; 4,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,91</t>
+          <t>5,5; 8,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 5,88</t>
+          <t>3,66; 5,69</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>6,5%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,7; 14,07</t>
+          <t>3,55; 8,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,62</t>
+          <t>2,63; 7,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,73</t>
+          <t>1,48; 5,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,21</t>
+          <t>1,91; 4,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,75; 19,38</t>
+          <t>11,88; 19,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,21; 22,45</t>
+          <t>11,82; 19,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,37</t>
+          <t>6,54; 12,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,38</t>
+          <t>3,24; 13,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,18; 16,33</t>
+          <t>8,9; 13,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,67; 16,6</t>
+          <t>8,07; 13,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,77; 9,82</t>
+          <t>4,65; 8,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,37; 10,61</t>
+          <t>3,02; 8,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>13,32; 23,13</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 19,3</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 10,86</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 9,32</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 22,32</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18,0; 27,15</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 15,44</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 16,51</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 20,69</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 22,11</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 13,24</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 12,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,4; 3,52</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,65; 2,66</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,97; 1,77</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 2,47</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 2,26</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>4,35; 5,95</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>5,04; 6,68</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>3,11; 4,48</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 6,39</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 5,84</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>3,54; 4,5</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>3,55; 4,45</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>2,23; 2,98</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>3,46; 4,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 3,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -749,7 +750,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +770,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,76</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
     </row>
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,73</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,68</t>
+          <t>0,15; 1,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,12 +880,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,71</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,22 +895,22 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,75</t>
+          <t>0,03; 1,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,85</t>
+          <t>0,07; 0,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,96</t>
+          <t>0,08; 0,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,01</t>
+          <t>0,13; 1,2</t>
         </is>
       </c>
     </row>
@@ -1009,32 +1010,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,09</t>
+          <t>0,0; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,2</t>
+          <t>0,44; 2,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,07</t>
+          <t>0,42; 1,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,42</t>
+          <t>0,15; 1,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1045,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,15</t>
+          <t>0,23; 1,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,07</t>
+          <t>0,22; 1,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,91</t>
+          <t>0,15; 0,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,46</t>
+          <t>0,46; 1,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,41</t>
+          <t>0,89; 3,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,41</t>
+          <t>0,34; 2,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,36</t>
+          <t>0,17; 1,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,61</t>
+          <t>0,49; 2,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,3</t>
+          <t>1,42; 4,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,22</t>
+          <t>1,43; 4,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,54</t>
+          <t>1,6; 4,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,15</t>
+          <t>2,02; 5,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,44</t>
+          <t>1,41; 3,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,86</t>
+          <t>1,14; 2,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,54</t>
+          <t>1,0; 2,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,5</t>
+          <t>1,27; 3,51</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1285,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 10,77</t>
+          <t>5,11; 10,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,94</t>
+          <t>1,43; 4,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,47</t>
+          <t>1,06; 4,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,14</t>
+          <t>1,34; 3,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1310,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,51; 12,23</t>
+          <t>6,6; 12,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,03</t>
+          <t>3,73; 8,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,71</t>
+          <t>5,36; 8,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,54</t>
+          <t>6,28; 10,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,93</t>
+          <t>4,36; 7,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,32</t>
+          <t>2,8; 5,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,69</t>
+          <t>3,74; 5,81</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,94</t>
+          <t>3,8; 9,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,7</t>
+          <t>2,64; 8,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,13</t>
+          <t>1,52; 5,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,76</t>
+          <t>1,92; 4,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,88; 19,23</t>
+          <t>12,06; 19,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,82; 19,62</t>
+          <t>11,2; 19,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,54; 12,8</t>
+          <t>6,58; 12,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,24; 13,38</t>
+          <t>3,23; 13,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,66</t>
+          <t>8,94; 13,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,07; 13,01</t>
+          <t>8,09; 13,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,28</t>
+          <t>4,71; 8,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,68</t>
+          <t>3,14; 8,63</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,32; 23,13</t>
+          <t>13,16; 23,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,51; 19,3</t>
+          <t>9,69; 19,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,05; 10,86</t>
+          <t>5,11; 11,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 9,32</t>
+          <t>4,79; 9,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,98; 22,32</t>
+          <t>13,06; 21,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,0; 27,15</t>
+          <t>18,37; 27,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,71; 15,44</t>
+          <t>8,74; 15,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,57; 16,51</t>
+          <t>11,9; 16,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,27; 20,69</t>
+          <t>14,44; 21,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,86; 22,11</t>
+          <t>15,87; 22,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,03; 13,24</t>
+          <t>8,2; 13,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,41; 12,81</t>
+          <t>9,19; 12,8</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,52</t>
+          <t>2,35; 3,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,66</t>
+          <t>1,62; 2,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,77</t>
+          <t>1,01; 1,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,26</t>
+          <t>1,32; 2,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,35; 5,95</t>
+          <t>4,38; 5,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,04; 6,68</t>
+          <t>5,11; 6,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,48</t>
+          <t>3,11; 4,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,16; 5,84</t>
+          <t>4,18; 5,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,5</t>
+          <t>3,54; 4,48</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,45</t>
+          <t>3,52; 4,53</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,98</t>
+          <t>2,23; 3,01</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,97</t>
+          <t>2,97; 3,92</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2198</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2198</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1950</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6876</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1876</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14616</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7713</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1962</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16150</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2852</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2615</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4165</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>997; 11351</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1996</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6409</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11384</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2049</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6884</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>145; 9099</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>952; 12373</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>999; 12150</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6908</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1213; 11261</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2063</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2397</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7598</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6871</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7598</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7834</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5854</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9581</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6092</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7153</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7614</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3054; 15800</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2930; 13235</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>971; 9530</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3689; 12388</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3100; 15736</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3109; 14673</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2000; 12628</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4931; 16364</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9867</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6214</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3281</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12812</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13687</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16190</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>18247</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23211</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23554</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22405</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>21527</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4620; 18791</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2064; 15270</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1078; 9515</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4384; 23560</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7308; 24747</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8788; 25784</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10392; 28887</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14398; 41732</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14560; 34612</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13993; 34627</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12940; 33728</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>20404; 56258</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>29138</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11809</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10350</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13473</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>36177</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>40789</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27655</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37533</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>65314</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>52599</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>38005</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>51006</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19743; 41215</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6143; 20911</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5078; 20240</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7481; 21627</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25557; 48635</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29542; 54347</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18531; 41532</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29230; 47700</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>49691; 81143</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>38236; 67102</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>27323; 52846</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>41298; 64212</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17532</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>14472</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9945</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11597</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>53146</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>54345</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>35019</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>51818</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>70677</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>68817</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>44964</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>63414</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11120; 26639</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8130; 24828</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5091; 17064</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7039; 17602</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>41342; 67609</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>39531; 68554</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24866; 47219</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19670; 82608</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>56842; 87493</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>53495; 86107</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>33568; 58564</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>30666; 84231</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>37808</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>33996</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>19556</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>19062</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>58072</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>86125</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>47878</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>59674</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>95880</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>120121</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>67434</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>78736</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>27622; 49829</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>24119; 47687</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>13123; 29660</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>13524; 26892</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>43618; 72304</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>70854; 104208</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>34973; 61739</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>50482; 70119</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>78497; 114310</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>100722; 140376</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>53912; 87161</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>64926; 90467</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>95292</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>71329</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>45195</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>60609</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>171532</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>206519</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>134558</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>186333</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>266824</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>277847</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>179753</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>246942</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>77076; 115878</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>55242; 91401</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>34225; 60827</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>45805; 79269</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>147850; 199364</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>181182; 235216</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>110223; 158235</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>152825; 215091</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>235279; 298426</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>245081; 315223</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>154896; 209063</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>211225; 278841</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>